--- a/Work/Data/oil-price_db.xlsx
+++ b/Work/Data/oil-price_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1874AEC-F5B7-4067-824F-5BB46E758BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CB49EA-6406-4FE6-9CB6-6F79EE6993E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
